--- a/Pac-Man/src/Map.csv.xlsx
+++ b/Pac-Man/src/Map.csv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Final Project\PacMan-master\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\Pac-Man-2017\Pac-Man\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="14">
   <si>
     <t>TEMP:</t>
   </si>
@@ -47,7 +47,25 @@
     <t>PacDot</t>
   </si>
   <si>
-    <t>Object Type (Wall, PacDot,</t>
+    <t>PowerPellet</t>
+  </si>
+  <si>
+    <t>PacMan</t>
+  </si>
+  <si>
+    <t>Object Type (Wall, PacDot, null(empty), PowerPellet, PacMan, Shadow, Speedy, Bashful, Pokey)</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Bashful</t>
+  </si>
+  <si>
+    <t>Speedy</t>
+  </si>
+  <si>
+    <t>Pokey</t>
   </si>
 </sst>
 </file>
@@ -365,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F791"/>
+  <dimension ref="B1:F869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H790" sqref="H790"/>
+      <selection activeCell="B868" sqref="B868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,7 +394,7 @@
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -391,7 +409,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -11455,6 +11473,1098 @@
       </c>
       <c r="F791" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C792">
+        <v>14</v>
+      </c>
+      <c r="D792">
+        <v>0</v>
+      </c>
+      <c r="E792" t="s">
+        <v>2</v>
+      </c>
+      <c r="F792" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C793">
+        <v>14</v>
+      </c>
+      <c r="D793">
+        <v>1</v>
+      </c>
+      <c r="E793" t="s">
+        <v>2</v>
+      </c>
+      <c r="F793" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C794">
+        <v>14</v>
+      </c>
+      <c r="D794">
+        <v>2</v>
+      </c>
+      <c r="E794" t="s">
+        <v>2</v>
+      </c>
+      <c r="F794" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C795">
+        <v>14</v>
+      </c>
+      <c r="D795">
+        <v>3</v>
+      </c>
+      <c r="E795" t="s">
+        <v>2</v>
+      </c>
+      <c r="F795" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C796">
+        <v>14</v>
+      </c>
+      <c r="D796">
+        <v>4</v>
+      </c>
+      <c r="E796" t="s">
+        <v>2</v>
+      </c>
+      <c r="F796" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C797">
+        <v>14</v>
+      </c>
+      <c r="D797">
+        <v>5</v>
+      </c>
+      <c r="E797" t="s">
+        <v>2</v>
+      </c>
+      <c r="F797" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C798">
+        <v>14</v>
+      </c>
+      <c r="D798">
+        <v>7</v>
+      </c>
+      <c r="E798" t="s">
+        <v>2</v>
+      </c>
+      <c r="F798" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C799">
+        <v>14</v>
+      </c>
+      <c r="D799">
+        <v>8</v>
+      </c>
+      <c r="E799" t="s">
+        <v>2</v>
+      </c>
+      <c r="F799" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C800">
+        <v>14</v>
+      </c>
+      <c r="D800">
+        <v>9</v>
+      </c>
+      <c r="E800" t="s">
+        <v>2</v>
+      </c>
+      <c r="F800" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C801">
+        <v>14</v>
+      </c>
+      <c r="D801">
+        <v>18</v>
+      </c>
+      <c r="E801" t="s">
+        <v>2</v>
+      </c>
+      <c r="F801" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="802" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C802">
+        <v>14</v>
+      </c>
+      <c r="D802">
+        <v>19</v>
+      </c>
+      <c r="E802" t="s">
+        <v>2</v>
+      </c>
+      <c r="F802" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C803">
+        <v>14</v>
+      </c>
+      <c r="D803">
+        <v>20</v>
+      </c>
+      <c r="E803" t="s">
+        <v>2</v>
+      </c>
+      <c r="F803" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C804">
+        <v>14</v>
+      </c>
+      <c r="D804">
+        <v>22</v>
+      </c>
+      <c r="E804" t="s">
+        <v>2</v>
+      </c>
+      <c r="F804" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C805">
+        <v>14</v>
+      </c>
+      <c r="D805">
+        <v>23</v>
+      </c>
+      <c r="E805" t="s">
+        <v>2</v>
+      </c>
+      <c r="F805" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="806" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C806">
+        <v>14</v>
+      </c>
+      <c r="D806">
+        <v>24</v>
+      </c>
+      <c r="E806" t="s">
+        <v>2</v>
+      </c>
+      <c r="F806" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="807" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C807">
+        <v>14</v>
+      </c>
+      <c r="D807">
+        <v>25</v>
+      </c>
+      <c r="E807" t="s">
+        <v>2</v>
+      </c>
+      <c r="F807" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="808" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C808">
+        <v>14</v>
+      </c>
+      <c r="D808">
+        <v>26</v>
+      </c>
+      <c r="E808" t="s">
+        <v>2</v>
+      </c>
+      <c r="F808" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C809">
+        <v>14</v>
+      </c>
+      <c r="D809">
+        <v>27</v>
+      </c>
+      <c r="E809" t="s">
+        <v>2</v>
+      </c>
+      <c r="F809" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C810">
+        <v>9</v>
+      </c>
+      <c r="D810">
+        <v>12</v>
+      </c>
+      <c r="E810" t="s">
+        <v>2</v>
+      </c>
+      <c r="F810" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="811" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C811">
+        <v>9</v>
+      </c>
+      <c r="D811">
+        <v>15</v>
+      </c>
+      <c r="E811" t="s">
+        <v>2</v>
+      </c>
+      <c r="F811" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C812">
+        <v>10</v>
+      </c>
+      <c r="D812">
+        <v>12</v>
+      </c>
+      <c r="E812" t="s">
+        <v>2</v>
+      </c>
+      <c r="F812" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C813">
+        <v>10</v>
+      </c>
+      <c r="D813">
+        <v>15</v>
+      </c>
+      <c r="E813" t="s">
+        <v>2</v>
+      </c>
+      <c r="F813" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C814">
+        <v>18</v>
+      </c>
+      <c r="D814">
+        <v>9</v>
+      </c>
+      <c r="E814" t="s">
+        <v>2</v>
+      </c>
+      <c r="F814" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="815" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C815">
+        <v>19</v>
+      </c>
+      <c r="D815">
+        <v>9</v>
+      </c>
+      <c r="E815" t="s">
+        <v>2</v>
+      </c>
+      <c r="F815" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C816">
+        <v>18</v>
+      </c>
+      <c r="D816">
+        <v>18</v>
+      </c>
+      <c r="E816" t="s">
+        <v>2</v>
+      </c>
+      <c r="F816" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C817">
+        <v>19</v>
+      </c>
+      <c r="D817">
+        <v>18</v>
+      </c>
+      <c r="E817" t="s">
+        <v>2</v>
+      </c>
+      <c r="F817" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C818">
+        <v>11</v>
+      </c>
+      <c r="D818">
+        <v>9</v>
+      </c>
+      <c r="E818" t="s">
+        <v>2</v>
+      </c>
+      <c r="F818" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C819">
+        <v>11</v>
+      </c>
+      <c r="D819">
+        <v>10</v>
+      </c>
+      <c r="E819" t="s">
+        <v>2</v>
+      </c>
+      <c r="F819" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C820">
+        <v>11</v>
+      </c>
+      <c r="D820">
+        <v>11</v>
+      </c>
+      <c r="E820" t="s">
+        <v>2</v>
+      </c>
+      <c r="F820" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C821">
+        <v>11</v>
+      </c>
+      <c r="D821">
+        <v>12</v>
+      </c>
+      <c r="E821" t="s">
+        <v>2</v>
+      </c>
+      <c r="F821" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C822">
+        <v>11</v>
+      </c>
+      <c r="D822">
+        <v>14</v>
+      </c>
+      <c r="E822" t="s">
+        <v>2</v>
+      </c>
+      <c r="F822" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C823">
+        <v>11</v>
+      </c>
+      <c r="D823">
+        <v>15</v>
+      </c>
+      <c r="E823" t="s">
+        <v>2</v>
+      </c>
+      <c r="F823" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C824">
+        <v>11</v>
+      </c>
+      <c r="D824">
+        <v>16</v>
+      </c>
+      <c r="E824" t="s">
+        <v>2</v>
+      </c>
+      <c r="F824" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="825" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C825">
+        <v>11</v>
+      </c>
+      <c r="D825">
+        <v>17</v>
+      </c>
+      <c r="E825" t="s">
+        <v>2</v>
+      </c>
+      <c r="F825" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C826">
+        <v>11</v>
+      </c>
+      <c r="D826">
+        <v>18</v>
+      </c>
+      <c r="E826" t="s">
+        <v>2</v>
+      </c>
+      <c r="F826" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C827">
+        <v>17</v>
+      </c>
+      <c r="D827">
+        <v>9</v>
+      </c>
+      <c r="E827" t="s">
+        <v>2</v>
+      </c>
+      <c r="F827" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="828" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C828">
+        <v>17</v>
+      </c>
+      <c r="D828">
+        <v>10</v>
+      </c>
+      <c r="E828" t="s">
+        <v>2</v>
+      </c>
+      <c r="F828" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="829" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C829">
+        <v>17</v>
+      </c>
+      <c r="D829">
+        <v>11</v>
+      </c>
+      <c r="E829" t="s">
+        <v>2</v>
+      </c>
+      <c r="F829" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="830" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C830">
+        <v>17</v>
+      </c>
+      <c r="D830">
+        <v>12</v>
+      </c>
+      <c r="E830" t="s">
+        <v>2</v>
+      </c>
+      <c r="F830" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C831">
+        <v>17</v>
+      </c>
+      <c r="D831">
+        <v>13</v>
+      </c>
+      <c r="E831" t="s">
+        <v>2</v>
+      </c>
+      <c r="F831" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="832" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C832">
+        <v>17</v>
+      </c>
+      <c r="D832">
+        <v>14</v>
+      </c>
+      <c r="E832" t="s">
+        <v>2</v>
+      </c>
+      <c r="F832" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="833" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C833">
+        <v>17</v>
+      </c>
+      <c r="D833">
+        <v>15</v>
+      </c>
+      <c r="E833" t="s">
+        <v>2</v>
+      </c>
+      <c r="F833" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C834">
+        <v>17</v>
+      </c>
+      <c r="D834">
+        <v>16</v>
+      </c>
+      <c r="E834" t="s">
+        <v>2</v>
+      </c>
+      <c r="F834" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C835">
+        <v>17</v>
+      </c>
+      <c r="D835">
+        <v>17</v>
+      </c>
+      <c r="E835" t="s">
+        <v>2</v>
+      </c>
+      <c r="F835" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="836" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C836">
+        <v>17</v>
+      </c>
+      <c r="D836">
+        <v>18</v>
+      </c>
+      <c r="E836" t="s">
+        <v>2</v>
+      </c>
+      <c r="F836" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="837" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C837">
+        <v>12</v>
+      </c>
+      <c r="D837">
+        <v>9</v>
+      </c>
+      <c r="E837" t="s">
+        <v>2</v>
+      </c>
+      <c r="F837" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="838" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C838">
+        <v>13</v>
+      </c>
+      <c r="D838">
+        <v>9</v>
+      </c>
+      <c r="E838" t="s">
+        <v>2</v>
+      </c>
+      <c r="F838" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="839" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C839">
+        <v>15</v>
+      </c>
+      <c r="D839">
+        <v>9</v>
+      </c>
+      <c r="E839" t="s">
+        <v>2</v>
+      </c>
+      <c r="F839" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="840" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C840">
+        <v>16</v>
+      </c>
+      <c r="D840">
+        <v>9</v>
+      </c>
+      <c r="E840" t="s">
+        <v>2</v>
+      </c>
+      <c r="F840" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="841" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C841">
+        <v>12</v>
+      </c>
+      <c r="D841">
+        <v>18</v>
+      </c>
+      <c r="E841" t="s">
+        <v>2</v>
+      </c>
+      <c r="F841" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="842" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C842">
+        <v>13</v>
+      </c>
+      <c r="D842">
+        <v>18</v>
+      </c>
+      <c r="E842" t="s">
+        <v>2</v>
+      </c>
+      <c r="F842" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="843" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C843">
+        <v>15</v>
+      </c>
+      <c r="D843">
+        <v>18</v>
+      </c>
+      <c r="E843" t="s">
+        <v>2</v>
+      </c>
+      <c r="F843" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="844" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C844">
+        <v>16</v>
+      </c>
+      <c r="D844">
+        <v>18</v>
+      </c>
+      <c r="E844" t="s">
+        <v>2</v>
+      </c>
+      <c r="F844" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="845" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C845">
+        <v>23</v>
+      </c>
+      <c r="D845">
+        <v>14</v>
+      </c>
+      <c r="E845" t="s">
+        <v>2</v>
+      </c>
+      <c r="F845" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C846">
+        <v>13</v>
+      </c>
+      <c r="D846">
+        <v>11</v>
+      </c>
+      <c r="E846" t="s">
+        <v>2</v>
+      </c>
+      <c r="F846" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C847">
+        <v>13</v>
+      </c>
+      <c r="D847">
+        <v>12</v>
+      </c>
+      <c r="E847" t="s">
+        <v>2</v>
+      </c>
+      <c r="F847" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C848">
+        <v>13</v>
+      </c>
+      <c r="D848">
+        <v>13</v>
+      </c>
+      <c r="E848" t="s">
+        <v>2</v>
+      </c>
+      <c r="F848" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="849" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C849">
+        <v>13</v>
+      </c>
+      <c r="D849">
+        <v>14</v>
+      </c>
+      <c r="E849" t="s">
+        <v>2</v>
+      </c>
+      <c r="F849" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="850" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C850">
+        <v>13</v>
+      </c>
+      <c r="D850">
+        <v>15</v>
+      </c>
+      <c r="E850" t="s">
+        <v>2</v>
+      </c>
+      <c r="F850" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="851" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C851">
+        <v>13</v>
+      </c>
+      <c r="D851">
+        <v>16</v>
+      </c>
+      <c r="E851" t="s">
+        <v>2</v>
+      </c>
+      <c r="F851" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="852" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C852">
+        <v>15</v>
+      </c>
+      <c r="D852">
+        <v>11</v>
+      </c>
+      <c r="E852" t="s">
+        <v>2</v>
+      </c>
+      <c r="F852" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="853" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C853">
+        <v>15</v>
+      </c>
+      <c r="D853">
+        <v>12</v>
+      </c>
+      <c r="E853" t="s">
+        <v>2</v>
+      </c>
+      <c r="F853" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="854" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C854">
+        <v>15</v>
+      </c>
+      <c r="D854">
+        <v>13</v>
+      </c>
+      <c r="E854" t="s">
+        <v>2</v>
+      </c>
+      <c r="F854" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="855" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C855">
+        <v>15</v>
+      </c>
+      <c r="D855">
+        <v>14</v>
+      </c>
+      <c r="E855" t="s">
+        <v>2</v>
+      </c>
+      <c r="F855" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="856" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C856">
+        <v>15</v>
+      </c>
+      <c r="D856">
+        <v>15</v>
+      </c>
+      <c r="E856" t="s">
+        <v>2</v>
+      </c>
+      <c r="F856" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="857" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C857">
+        <v>15</v>
+      </c>
+      <c r="D857">
+        <v>16</v>
+      </c>
+      <c r="E857" t="s">
+        <v>2</v>
+      </c>
+      <c r="F857" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="858" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C858">
+        <v>14</v>
+      </c>
+      <c r="D858">
+        <v>12</v>
+      </c>
+      <c r="E858" t="s">
+        <v>2</v>
+      </c>
+      <c r="F858" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="859" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C859">
+        <v>14</v>
+      </c>
+      <c r="D859">
+        <v>14</v>
+      </c>
+      <c r="E859" t="s">
+        <v>2</v>
+      </c>
+      <c r="F859" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="860" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C860">
+        <v>14</v>
+      </c>
+      <c r="D860">
+        <v>16</v>
+      </c>
+      <c r="E860" t="s">
+        <v>2</v>
+      </c>
+      <c r="F860" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="861" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C861">
+        <v>3</v>
+      </c>
+      <c r="D861">
+        <v>1</v>
+      </c>
+      <c r="E861" t="s">
+        <v>7</v>
+      </c>
+      <c r="F861" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C862">
+        <v>3</v>
+      </c>
+      <c r="D862">
+        <v>26</v>
+      </c>
+      <c r="E862" t="s">
+        <v>7</v>
+      </c>
+      <c r="F862" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C863">
+        <v>23</v>
+      </c>
+      <c r="D863">
+        <v>1</v>
+      </c>
+      <c r="E863" t="s">
+        <v>7</v>
+      </c>
+      <c r="F863" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="864" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C864">
+        <v>23</v>
+      </c>
+      <c r="D864">
+        <v>26</v>
+      </c>
+      <c r="E864" t="s">
+        <v>7</v>
+      </c>
+      <c r="F864" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="865" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C865">
+        <v>23</v>
+      </c>
+      <c r="D865">
+        <v>13</v>
+      </c>
+      <c r="E865" t="s">
+        <v>8</v>
+      </c>
+      <c r="F865">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="866" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C866">
+        <v>11</v>
+      </c>
+      <c r="D866">
+        <v>13</v>
+      </c>
+      <c r="E866" t="s">
+        <v>10</v>
+      </c>
+      <c r="F866">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="867" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C867">
+        <v>14</v>
+      </c>
+      <c r="D867">
+        <v>11</v>
+      </c>
+      <c r="E867" t="s">
+        <v>11</v>
+      </c>
+      <c r="F867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C868">
+        <v>14</v>
+      </c>
+      <c r="D868">
+        <v>13</v>
+      </c>
+      <c r="E868" t="s">
+        <v>12</v>
+      </c>
+      <c r="F868">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="869" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C869">
+        <v>14</v>
+      </c>
+      <c r="D869">
+        <v>15</v>
+      </c>
+      <c r="E869" t="s">
+        <v>13</v>
+      </c>
+      <c r="F869">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Pac-Man/src/Map.csv.xlsx
+++ b/Pac-Man/src/Map.csv.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\Pac-Man-2017\Pac-Man\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21405" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
